--- a/biology/Zoologie/Hepialidae/Hepialidae.xlsx
+++ b/biology/Zoologie/Hepialidae/Hepialidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hepialidae sont une famille de lépidoptères qui compte environ 500 espèces à travers le monde. La plupart des espèces présentent un fort dimorphisme sexuel : les mâles sont en général plus petits que les femelles. 
 On considère cette famille comme primitive avec nombre de différences structurelles par rapport aux autres mites, par exemple de très courtes antennes et l'absence de proboscis ou de  frenulum.
@@ -513,7 +525,9 @@
           <t>Taxons de rang inférieur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit des genres :
 Abantiades
@@ -600,7 +614,9 @@
           <t>Principales espèces européennes à compléter</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les espèces suivantes sont présentes en Europe :
 Gazoryctra
